--- a/US-tasks folder/Individual Contribution Report Template (1).xlsx
+++ b/US-tasks folder/Individual Contribution Report Template (1).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A86AF-D7A6-4AF4-B0DE-01A35036F2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6115DB-8D91-4A9B-A0E1-90B85DFEB7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4392" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>Individual Contribution Report</t>
   </si>
@@ -214,12 +214,6 @@
     <t>https://github.com/Tchapis/Three.js-Projects/blob/armando/US-tasks%20folder/task%20108%20proposal%20document%20for%20feedback%20collection.docx</t>
   </si>
   <si>
-    <t>In-Process</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>https://github.com/Tchapis/Three.js-Projects/blob/armando/US-tasks%20folder/Use%20Case%20Diagram%201%20Viewing%20the%203D%20Asteroid%20Simulation.docx</t>
   </si>
   <si>
@@ -236,6 +230,15 @@
   </si>
   <si>
     <t>https://github.com/Tchapis/Three.js-Projects/blob/armando/US-tasks%20folder/Activity%20Diagram%203%20Handling%20Sponsor%20Feedback%20and%20Deploying%20Updates.docx</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1gKesZh87Leq9dSIKn9xP9kJJ692N0pC4bIzu_ZnRHmU/edit?tab=t.0</t>
+  </si>
+  <si>
+    <t>https://github.com/Tchapis/Three.js-Projects/blob/armando/US-tasks%20folder/task61%20-%20PSYCHE.blend</t>
+  </si>
+  <si>
+    <t>https://github.com/Tchapis/Three.js-Projects/blob/armando/US-tasks%20folder/task62%20-%20PSYCHE.blend</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -408,6 +411,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -441,23 +451,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -473,6 +466,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -756,7 +759,7 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,10 +782,10 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
@@ -797,19 +800,19 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="17">
         <v>35</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -910,7 +913,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>102</v>
       </c>
       <c r="B16" s="5">
@@ -919,7 +922,7 @@
       <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="9">
@@ -933,7 +936,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>103</v>
       </c>
       <c r="B17" s="5">
@@ -942,7 +945,7 @@
       <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="9">
@@ -956,7 +959,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>104</v>
       </c>
       <c r="B18" s="5">
@@ -965,7 +968,7 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="9">
@@ -979,7 +982,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>106</v>
       </c>
       <c r="B19" s="5">
@@ -988,7 +991,7 @@
       <c r="C19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="9">
@@ -1002,7 +1005,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>107</v>
       </c>
       <c r="B20" s="5">
@@ -1011,7 +1014,7 @@
       <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="9">
@@ -1025,7 +1028,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>108</v>
       </c>
       <c r="B21" s="5">
@@ -1034,7 +1037,7 @@
       <c r="C21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="9">
@@ -1048,7 +1051,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>139</v>
       </c>
       <c r="B22" s="5">
@@ -1057,7 +1060,7 @@
       <c r="C22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="9">
@@ -1071,20 +1074,20 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>61</v>
       </c>
       <c r="B23" s="5">
         <v>61</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E23" s="9">
-        <v>45570</v>
+        <v>45576</v>
       </c>
       <c r="F23" s="15">
         <v>100</v>
@@ -1094,20 +1097,20 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>62</v>
       </c>
       <c r="B24" s="5">
         <v>62</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="E24" s="9">
-        <v>45570</v>
+        <v>45576</v>
       </c>
       <c r="F24" s="15">
         <v>100</v>
@@ -1117,7 +1120,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>230</v>
       </c>
       <c r="B25" s="5">
@@ -1126,8 +1129,8 @@
       <c r="C25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>59</v>
+      <c r="D25" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="E25" s="9">
         <v>45575</v>
@@ -1140,7 +1143,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>231</v>
       </c>
       <c r="B26" s="5">
@@ -1149,8 +1152,8 @@
       <c r="C26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>60</v>
+      <c r="D26" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="E26" s="9">
         <v>45575</v>
@@ -1163,7 +1166,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>232</v>
       </c>
       <c r="B27" s="5">
@@ -1172,8 +1175,8 @@
       <c r="C27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>61</v>
+      <c r="D27" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="E27" s="9">
         <v>45575</v>
@@ -1186,7 +1189,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>233</v>
       </c>
       <c r="B28" s="5">
@@ -1195,8 +1198,8 @@
       <c r="C28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>62</v>
+      <c r="D28" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="E28" s="9">
         <v>45575</v>
@@ -1209,7 +1212,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>234</v>
       </c>
       <c r="B29" s="5">
@@ -1218,8 +1221,8 @@
       <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>63</v>
+      <c r="D29" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="E29" s="9">
         <v>45575</v>
@@ -1232,7 +1235,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>235</v>
       </c>
       <c r="B30" s="5">
@@ -1241,8 +1244,8 @@
       <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>64</v>
+      <c r="D30" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="E30" s="9">
         <v>45575</v>
@@ -1255,15 +1258,26 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="13" t="str">
-        <f t="shared" ref="G17:G80" si="0">IF(COUNTA(A31:F31)=0, "", IF(COUNTA(A31:F31)&lt;6, "No", ""))</f>
-        <v/>
+      <c r="A31" s="16">
+        <v>63</v>
+      </c>
+      <c r="B31" s="5">
+        <v>63</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="9">
+        <v>45576</v>
+      </c>
+      <c r="F31" s="15">
+        <v>100</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1274,7 +1288,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="15"/>
       <c r="G32" s="13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G31:G80" si="0">IF(COUNTA(A32:F32)=0, "", IF(COUNTA(A32:F32)&lt;6, "No", ""))</f>
         <v/>
       </c>
     </row>
@@ -1993,33 +2007,33 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
+  <conditionalFormatting sqref="A16:A24">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B8:B11">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D24">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D30">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D31:D91">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G91">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"bad"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A24">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D24">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D30">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B11" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2068,9 +2082,13 @@
     <hyperlink ref="D28" r:id="rId26" xr:uid="{AC2BB709-977F-421F-8FAC-38A92B210298}"/>
     <hyperlink ref="D29" r:id="rId27" xr:uid="{B2C85729-7718-468E-9982-DCA25E504FEF}"/>
     <hyperlink ref="D30" r:id="rId28" xr:uid="{F7343CE8-B512-4EE3-92DC-28731D06C852}"/>
+    <hyperlink ref="D31" r:id="rId29" xr:uid="{05C44E27-C2AB-4CB2-9045-C7B0E760C569}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://tree.taiga.io/project/jlpotock-group35_nasapsychemission_yearonpsychesimulation/task/63" xr:uid="{A2C7FDF8-216F-45D0-BD8E-79AAE7AF169A}"/>
+    <hyperlink ref="D23" r:id="rId31" xr:uid="{578E06AE-A1CA-49D9-8265-654DEE49E76C}"/>
+    <hyperlink ref="D24" r:id="rId32" xr:uid="{BE28ADE4-9FA4-4321-BF27-EDFDD259AAD4}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
 </worksheet>
 </file>
 
